--- a/lab1/lab1.xlsx
+++ b/lab1/lab1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\GG\pp\lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\рр\pp\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,135 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
   <si>
     <t>Значение n</t>
   </si>
   <si>
     <t>nproc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14242598500109827</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000833331</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14162598692300365</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.33333e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14160098692312495</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.33333e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159298692312694</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.33333e-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159273692312668</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.33333e-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265692312673</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.33333e-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265442312385</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.33331e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.13992598890715868</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00166666</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14152598692325347</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.66667e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14157598692312856</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.66667e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159198692312636</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.66667e-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159248692312687</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.66667e-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159264692312812</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.66666e-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265192312365</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.66667e-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265296978507</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.20008e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265358975404</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.90799e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265358979312</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265358979489</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.77636e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265358979223</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.88178e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265358979356</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.44089e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265358979667</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.55271e-15</t>
   </si>
   <si>
     <t xml:space="preserve"> Значение pi</t>
@@ -165,274 +42,7 @@
     <t xml:space="preserve"> Ошибка вычисления</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.19999e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.09999e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.41e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.67e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0001385</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0002665</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.10001e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.39e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.76e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0001296</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0002614</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.00002e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.69999e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.57e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.41e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0002527</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0005262</t>
-  </si>
-  <si>
     <t xml:space="preserve">nproc </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14162598692300321</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.69999e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14160098692312406</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159298692312605</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.43e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159273692312535</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.93e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265692311962</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0002159</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265442313185</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0002885</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.33339e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.13992598890715913</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.00003e-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14152598692325302</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.4e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159198692312724</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.1e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159248692312953</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.19e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159264692312767</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0001086</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.66667e-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265192312187</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0002169</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265296978552</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.00006e-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265358975359</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.95239e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265358979267</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.70001e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265358979178</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.25e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.33227e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.49e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0002232</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265358979978</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000453</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.66134e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.3e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1416259869230041</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.9e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.79999e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.69e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159273692312624</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.01e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0002005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265442312474</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000302</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.33332e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.69998e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14152598692325391</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.60001e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.59999e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.47e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159248692312643</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.32e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159264692312679</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0001601</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1415926519231272</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000316</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.14159265296978463</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.59999e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.3e-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.42e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.141592653589794</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.92e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0002833</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0005838</t>
   </si>
   <si>
     <t>Ускорение</t>
@@ -472,10 +82,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -626,25 +239,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.75000625005208366</c:v>
+                  <c:v>0.93340604948609784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80952290249001191</c:v>
+                  <c:v>2.0000896075987247</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2.1212227734833817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0141843971631206</c:v>
+                  <c:v>2.1006163522012575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0973782771535581</c:v>
+                  <c:v>2.196087043478602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5588447653429602</c:v>
+                  <c:v>2.0445009535918626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0825515947467166</c:v>
+                  <c:v>2.0628889616770389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,25 +324,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.27906744186046512</c:v>
+                  <c:v>1.4998840009279926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72413448275862058</c:v>
+                  <c:v>1.5623557823316323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81579162050426446</c:v>
+                  <c:v>1.5713727895406513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83431952662721898</c:v>
+                  <c:v>2.000010062943713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88704318936877069</c:v>
+                  <c:v>1.8772794310716727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69077306733167088</c:v>
+                  <c:v>1.9528243327126007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88245033112582782</c:v>
+                  <c:v>1.8904024767801857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,25 +793,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.75000625005208366</c:v>
+                  <c:v>0.93340604948609784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80952290249001191</c:v>
+                  <c:v>2.0000896075987247</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2.1212227734833817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0141843971631206</c:v>
+                  <c:v>2.1006163522012575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0973782771535581</c:v>
+                  <c:v>2.196087043478602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5588447653429602</c:v>
+                  <c:v>2.0445009535918626</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0825515947467166</c:v>
+                  <c:v>2.0628889616770389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,25 +878,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.64706643607571857</c:v>
+                  <c:v>1.1248537514624855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69230502959604001</c:v>
+                  <c:v>1.6000025599836161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86111628087855796</c:v>
+                  <c:v>1.7837813294587721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94557823129251706</c:v>
+                  <c:v>1.7515017822569576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63888888888888884</c:v>
+                  <c:v>1.9299341149854012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80949406620861974</c:v>
+                  <c:v>1.9613899613899612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8272151898734178</c:v>
+                  <c:v>2.0683535984226094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,25 +1347,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.66667722231018589</c:v>
+                  <c:v>1.3846160946701866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79999466670222186</c:v>
+                  <c:v>1.8285682285970284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82456460449930613</c:v>
+                  <c:v>1.701494319436899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8754863813229572</c:v>
+                  <c:v>2.0365296803652968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82994454713493526</c:v>
+                  <c:v>1.8358458961474036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8832607835377918</c:v>
+                  <c:v>1.6701298701298701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86088939566704681</c:v>
+                  <c:v>1.9088082901554404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,25 +1432,25 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.46153639052457901</c:v>
+                  <c:v>1.4444404938622768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37500250000000002</c:v>
+                  <c:v>1.5909102479254695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78082054794520539</c:v>
+                  <c:v>1.7866906739570321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75146198830409361</c:v>
+                  <c:v>2.6707317073170733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91385135135135132</c:v>
+                  <c:v>1.877360852026229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89198729262266152</c:v>
+                  <c:v>1.9518377693282638</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90133607399794446</c:v>
+                  <c:v>1.9419755156800267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4305,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,30 +3939,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>3.1424259850010898</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9999999999999996E-7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+        <v>3.5000300000000001E-7</v>
+      </c>
+      <c r="D2">
+        <v>8.3333099999999998E-4</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4359,28 +3972,28 @@
       <c r="A3">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>3.1416259869230001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.24995E-6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.3333300000000002E-5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>3.1416009869231201</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.7499599999999999E-6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.3333300000000007E-6</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -4388,56 +4001,56 @@
       <c r="A5">
         <v>500</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>3.1415929869231198</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.3499499999999996E-6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.3333300000000001E-7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000</v>
       </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+      <c r="B6">
+        <v>3.14159273692312</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.6799999999999998E-5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.3333299999999999E-8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5000</v>
       </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+      <c r="B7">
+        <v>3.1415926569231098</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.0400000000000003E-5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.3333300000000001E-9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10000</v>
       </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
+      <c r="B8">
+        <v>3.1415926544231301</v>
+      </c>
+      <c r="C8">
+        <v>1.5745000000000001E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.3333900000000003E-10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4445,111 +4058,111 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
+      <c r="B10">
+        <v>3.1399259889071498</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.0000199999999999E-7</v>
+      </c>
+      <c r="D10">
+        <v>1.6666599999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
+      <c r="B11">
+        <v>3.1415259869232499</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.5000699999999999E-7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.6666699999999996E-5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
+      <c r="B12">
+        <v>3.1415759869231201</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.8500099999999999E-6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.6666700000000001E-5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>500</v>
       </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
+      <c r="B13">
+        <v>3.1415919869231201</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.1999999999999994E-6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.6666700000000005E-7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000</v>
       </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
+      <c r="B14">
+        <v>3.1415924869231202</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.5299999999999999E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.6666699999999999E-7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5000</v>
       </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
+      <c r="B15">
+        <v>3.1415926469231201</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.805E-5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.6666700000000001E-9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10000</v>
       </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
+      <c r="B16">
+        <v>3.1415926519231201</v>
+      </c>
+      <c r="C16">
+        <v>1.5285E-4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.66667E-9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4557,80 +4170,80 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
+      <c r="B18">
+        <v>3.1415926529697802</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.5000300000000001E-7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.20008E-10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
+      <c r="B19">
+        <v>3.14159265358975</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.60001E-6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.9967999999999999E-14</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100</v>
       </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
+      <c r="B20">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.8500199999999999E-6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.8817800000000003E-16</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>500</v>
       </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>100</v>
+      <c r="B21">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.23E-5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8.8817800000000003E-16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1000</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
+      <c r="B22">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.7399999999999999E-5</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4640,11 +4253,11 @@
       <c r="A23">
         <v>5000</v>
       </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
+      <c r="B23">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C23">
+        <v>1.2860000000000001E-4</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4654,14 +4267,14 @@
       <c r="A24">
         <v>10000</v>
       </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>105</v>
+      <c r="B24">
+        <v>3.1415926535898002</v>
+      </c>
+      <c r="C24">
+        <v>2.7629999999999999E-4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7.10543E-15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4669,55 +4282,55 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
+      <c r="B28">
+        <v>3.1424259850010898</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.7497399999999998E-7</v>
+      </c>
+      <c r="D28">
+        <v>8.3333099999999998E-4</v>
       </c>
       <c r="E28" s="1">
         <f>C2/C28</f>
-        <v>0.75000625005208366</v>
+        <v>0.93340604948609784</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29">
+        <v>3.1416259869230001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6.2494699999999996E-7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.3333300000000002E-5</v>
+      </c>
+      <c r="E29" s="1">
+        <f>C3/C29</f>
+        <v>2.0000896075987247</v>
+      </c>
+      <c r="F29" t="s">
         <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" ref="E29:E77" si="0">C3/C29</f>
-        <v>0.80952290249001191</v>
-      </c>
-      <c r="F29" t="s">
-        <v>66</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -4727,90 +4340,90 @@
       <c r="A30">
         <v>100</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
+      <c r="B30">
+        <v>3.1416009869231201</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8.2497700000000004E-7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.3333300000000007E-6</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>C4/C30</f>
+        <v>2.1212227734833817</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>500</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
+      <c r="B31">
+        <v>3.1415929869231198</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.9750000000000001E-6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.3333300000000001E-7</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0141843971631206</v>
+        <f>C5/C31</f>
+        <v>2.1006163522012575</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1000</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
+      <c r="B32">
+        <v>3.14159273692312</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7.6499699999999992E-6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8.3333299999999999E-8</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0973782771535581</v>
+        <f>C6/C32</f>
+        <v>2.196087043478602</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5000</v>
       </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
+      <c r="B33">
+        <v>3.1415926569231201</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.9325E-5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.3333300000000001E-9</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5588447653429602</v>
+        <f>C7/C33</f>
+        <v>2.0445009535918626</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10000</v>
       </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
+      <c r="B34">
+        <v>3.1415926544231199</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7.6324999999999999E-5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8.3333099999999996E-10</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0825515947467166</v>
+        <f>C8/C34</f>
+        <v>2.0628889616770389</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4818,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1"/>
     </row>
@@ -4832,126 +4445,126 @@
       <c r="A36">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
+      <c r="B36">
+        <v>3.1399259889071498</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.2497300000000001E-7</v>
+      </c>
+      <c r="D36">
+        <v>1.6666599999999999E-3</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.36363909090909091</v>
+        <f>C10/C36</f>
+        <v>1.333502242491321</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>50</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
+      <c r="B37" s="2">
+        <v>3.1415259869232499</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5.0000399999999998E-7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6.6666699999999996E-5</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66666111111111115</v>
+        <f>C11/C37</f>
+        <v>1.8999988000096</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>100</v>
       </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
+      <c r="B38">
+        <v>3.1415759869231201</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8.25006E-7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77419105099660968</v>
+        <f>C12/C38</f>
+        <v>2.2424200551268716</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>500</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" t="s">
-        <v>23</v>
+      <c r="B39">
+        <v>3.1415919869231201</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.7000300000000001E-6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.6666700000000005E-7</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="0"/>
-        <v>0.79136690647482011</v>
+        <f>C13/C39</f>
+        <v>2.2161982470412398</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1000</v>
       </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" t="s">
-        <v>25</v>
+      <c r="B40">
+        <v>3.1415924869231202</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7.5750299999999999E-6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.6666699999999999E-7</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="0"/>
-        <v>0.79347826086956519</v>
+        <f>C14/C40</f>
+        <v>2.0197939810139367</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5000</v>
       </c>
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
+      <c r="B41">
+        <v>3.1415926469231201</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3.8099999999999998E-5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>6.6666600000000002E-9</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="0"/>
-        <v>0.83796296296296291</v>
+        <f>C15/C41</f>
+        <v>2.0485564304461943</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10000</v>
       </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" t="s">
-        <v>29</v>
+      <c r="B42">
+        <v>3.1415926519231201</v>
+      </c>
+      <c r="C42" s="1">
+        <v>7.8675000000000001E-5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.66667E-9</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="0"/>
-        <v>0.82976281560826315</v>
+        <f>C16/C42</f>
+        <v>1.9428026692087703</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4959,13 +4572,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1"/>
     </row>
@@ -4973,126 +4586,126 @@
       <c r="A44">
         <v>10</v>
       </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>31</v>
+      <c r="B44">
+        <v>3.1415926529697802</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3.2500200000000001E-7</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6.20008E-10</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66667722231018589</v>
+        <f>C18/C44</f>
+        <v>1.3846160946701866</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" t="s">
-        <v>33</v>
+      <c r="B45">
+        <v>3.14159265358975</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8.7500699999999997E-7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.9079900000000001E-14</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="0"/>
-        <v>0.79999466670222186</v>
+        <f>C19/C45</f>
+        <v>1.8285682285970284</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>100</v>
       </c>
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" t="s">
-        <v>61</v>
+      <c r="B46">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.6750099999999999E-6</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="0"/>
-        <v>0.82456460449930613</v>
+        <f>C20/C46</f>
+        <v>1.701494319436899</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>500</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" t="s">
-        <v>36</v>
+      <c r="B47" s="2">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1.095E-5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.22045E-15</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8754863813229572</v>
+        <f>C21/C47</f>
+        <v>2.0365296803652968</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1000</v>
       </c>
-      <c r="B48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" t="s">
-        <v>38</v>
+      <c r="B48">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.4925E-5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8.8817800000000003E-16</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="0"/>
-        <v>0.82994454713493526</v>
+        <f>C22/C48</f>
+        <v>1.8358458961474036</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5000</v>
       </c>
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" t="s">
-        <v>40</v>
+      <c r="B49">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C49" s="1">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>4.4408900000000002E-16</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8832607835377918</v>
+        <f>C23/C49</f>
+        <v>1.6701298701298701</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10000</v>
       </c>
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" t="s">
-        <v>42</v>
+      <c r="B50">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C50">
+        <v>1.4474999999999999E-4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3.9967999999999998E-15</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="0"/>
-        <v>0.86088939566704681</v>
+        <f>C24/C50</f>
+        <v>1.9088082901554404</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5106,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -5120,18 +4733,18 @@
       <c r="A54">
         <v>10</v>
       </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3</v>
+      <c r="B54">
+        <v>3.1424259850010898</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.5000199999999999E-7</v>
+      </c>
+      <c r="D54">
+        <v>8.3333099999999998E-4</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="0"/>
-        <v>0.27906744186046512</v>
+        <f>C28/C54</f>
+        <v>1.4998840009279926</v>
       </c>
       <c r="F54" t="s">
         <v>1</v>
@@ -5144,108 +4757,108 @@
       <c r="A55">
         <v>50</v>
       </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
+      <c r="B55">
+        <v>3.1416259869230001</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4.0000300000000001E-7</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.3333300000000002E-5</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="0"/>
-        <v>0.72413448275862058</v>
+        <f>C29/C55</f>
+        <v>1.5623557823316323</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>100</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
+      <c r="B56">
+        <v>3.1416009869231201</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5.2500399999999995E-7</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8.3333300000000007E-6</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="0"/>
-        <v>0.81579162050426446</v>
+        <f>C30/C56</f>
+        <v>1.5713727895406513</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>500</v>
       </c>
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
+      <c r="B57">
+        <v>3.1415929869231198</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.9874900000000002E-6</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3.3333300000000001E-7</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="0"/>
-        <v>0.83431952662721898</v>
+        <f>C31/C57</f>
+        <v>2.000010062943713</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1000</v>
       </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" t="s">
-        <v>11</v>
+      <c r="B58">
+        <v>3.14159273692312</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4.0750300000000004E-6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>8.3333299999999999E-8</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88704318936877069</v>
+        <f>C32/C58</f>
+        <v>1.8772794310716727</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5000</v>
       </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
+      <c r="B59">
+        <v>3.1415926569231201</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.0137500000000002E-5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3.3333300000000001E-9</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69077306733167088</v>
+        <f>C33/C59</f>
+        <v>1.9528243327126007</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10000</v>
       </c>
-      <c r="B60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" t="s">
-        <v>116</v>
+      <c r="B60">
+        <v>3.1415926544231199</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4.0374999999999999E-5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>8.3333199999999997E-10</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="0"/>
-        <v>0.88245033112582782</v>
+        <f>C34/C60</f>
+        <v>1.8904024767801857</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5253,13 +4866,13 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -5267,126 +4880,126 @@
       <c r="A62">
         <v>10</v>
       </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" t="s">
-        <v>17</v>
+      <c r="B62">
+        <v>3.1399259889071498</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2.0000199999999999E-7</v>
+      </c>
+      <c r="D62">
+        <v>1.6666599999999999E-3</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="0"/>
-        <v>0.64706643607571857</v>
+        <f>C36/C62</f>
+        <v>1.1248537514624855</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50</v>
       </c>
-      <c r="B63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
+      <c r="B63">
+        <v>3.1415259869232499</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3.1250199999999997E-7</v>
+      </c>
+      <c r="D63" s="1">
+        <v>6.6666699999999996E-5</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69230502959604001</v>
+        <f>C37/C63</f>
+        <v>1.6000025599836161</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>100</v>
       </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" t="s">
-        <v>21</v>
+      <c r="B64">
+        <v>3.1415759869231201</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4.6250400000000002E-7</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.6666700000000001E-5</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="0"/>
-        <v>0.86111628087855796</v>
+        <f>C38/C64</f>
+        <v>1.7837813294587721</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>500</v>
       </c>
-      <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" t="s">
-        <v>23</v>
+      <c r="B65">
+        <v>3.1415919869231201</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2.1124899999999998E-6</v>
+      </c>
+      <c r="D65" s="1">
+        <v>6.6666700000000005E-7</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94557823129251706</v>
+        <f>C39/C65</f>
+        <v>1.7515017822569576</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1000</v>
       </c>
-      <c r="B66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" t="s">
-        <v>25</v>
+      <c r="B66">
+        <v>3.1415924869231202</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3.9250200000000002E-6</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.6666699999999999E-7</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="0"/>
-        <v>0.63888888888888884</v>
+        <f>C40/C66</f>
+        <v>1.9299341149854012</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5000</v>
       </c>
-      <c r="B67" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" t="s">
-        <v>89</v>
+      <c r="B67">
+        <v>3.1415926469231201</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.9425000000000001E-5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6.6666700000000001E-9</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="0"/>
-        <v>0.80949406620861974</v>
+        <f>C41/C67</f>
+        <v>1.9613899613899612</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10000</v>
       </c>
-      <c r="B68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C68" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" t="s">
-        <v>29</v>
+      <c r="B68">
+        <v>3.1415926519231201</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3.8037500000000003E-5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1.66667E-9</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8272151898734178</v>
+        <f>C42/C68</f>
+        <v>2.0683535984226094</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -5394,13 +5007,13 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -5408,126 +5021,126 @@
       <c r="A70">
         <v>10</v>
       </c>
-      <c r="B70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" t="s">
-        <v>31</v>
+      <c r="B70">
+        <v>3.1415926529697802</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2.2500199999999999E-7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>6.20008E-10</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="0"/>
-        <v>0.46153639052457901</v>
+        <f>C44/C70</f>
+        <v>1.4444404938622768</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>50</v>
       </c>
-      <c r="B71" t="s">
-        <v>32</v>
+      <c r="B71">
+        <v>3.14159265358975</v>
       </c>
       <c r="C71" s="1">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>33</v>
+        <v>5.5000400000000003E-7</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.9523900000000003E-14</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37500250000000002</v>
+        <f>C45/C71</f>
+        <v>1.5909102479254695</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>100</v>
       </c>
-      <c r="B72" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" t="s">
-        <v>40</v>
+      <c r="B72">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C72" s="1">
+        <v>9.3749300000000004E-7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4.4408900000000002E-16</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="0"/>
-        <v>0.78082054794520539</v>
+        <f>C46/C72</f>
+        <v>1.7866906739570321</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>500</v>
       </c>
-      <c r="B73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" t="s">
-        <v>131</v>
+      <c r="B73">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4.0999999999999997E-6</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75146198830409361</v>
+        <f>C47/C73</f>
+        <v>2.6707317073170733</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1000</v>
       </c>
-      <c r="B74" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" t="s">
-        <v>38</v>
+      <c r="B74">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C74" s="1">
+        <v>7.9499899999999994E-6</v>
+      </c>
+      <c r="D74" s="1">
+        <v>8.8817800000000003E-16</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="0"/>
-        <v>0.91385135135135132</v>
+        <f>C48/C74</f>
+        <v>1.877360852026229</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5000</v>
       </c>
-      <c r="B75" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" t="s">
-        <v>38</v>
+      <c r="B75">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3.9449999999999997E-5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>8.8817800000000003E-16</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89198729262266152</v>
+        <f>C49/C75</f>
+        <v>1.9518377693282638</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10000</v>
       </c>
-      <c r="B76" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" t="s">
-        <v>135</v>
+      <c r="B76">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C76" s="1">
+        <v>7.4537500000000003E-5</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="0"/>
-        <v>0.90133607399794446</v>
+        <f>C50/C76</f>
+        <v>1.9419755156800267</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5542,7 +5155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
